--- a/example/KCOR_sample_computation_194x.xlsx
+++ b/example/KCOR_sample_computation_194x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF0A6DC-32C4-41D6-B085-641BDA75E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519E35D-E3ED-475A-807A-499ED8F39523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_24" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
   <si>
     <t>baseline</t>
   </si>
@@ -660,6 +660,9 @@
   <si>
     <t>this says the same thing:</t>
   </si>
+  <si>
+    <t>for the ASMR computation:</t>
+  </si>
 </sst>
 </file>
 
@@ -9029,7 +9032,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2021_24'!$AL$5</c15:sqref>
@@ -9049,7 +9052,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2021_24'!$AC$6:$AC$168</c15:sqref>
@@ -9552,7 +9555,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2021_24'!$AL$6:$AL$168</c15:sqref>
@@ -10055,7 +10058,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-EDF0-4B42-82AA-3494E71A4B54}"/>
                   </c:ext>
@@ -10421,6 +10424,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199223</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>103842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA6EB7-E735-CAA0-506A-185014F33005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="7877175"/>
+          <a:ext cx="6419048" cy="7466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18180</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>66384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7456B336-8A6C-BBC8-8A77-139DA87F3C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="15649575"/>
+          <a:ext cx="6961905" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>322949</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2009A012-D3C7-5FAC-B4A2-098273261CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="66675"/>
+          <a:ext cx="7209524" cy="7457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>37257</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>94405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0F63C6-AC55-8AC5-0DFB-C81FE35733DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="8001000"/>
+          <a:ext cx="6742857" cy="6761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10713,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AS32" sqref="AS32"/>
+    <sheetView topLeftCell="U79" workbookViewId="0">
+      <selection activeCell="AE86" sqref="AE86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47619,10 +47798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84728F8-6872-4219-9AA6-EC52FA12A088}">
-  <dimension ref="B16"/>
+  <dimension ref="A16:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47632,6 +47811,11 @@
         <v>200</v>
       </c>
     </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/example/KCOR_sample_computation_194x.xlsx
+++ b/example/KCOR_sample_computation_194x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519E35D-E3ED-475A-807A-499ED8F39523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3B5808-52CF-427B-9642-4CC52A9A6DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="2115" windowWidth="22110" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_24" sheetId="1" r:id="rId1"/>
@@ -2871,1034 +2871,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2021_24'!$AF$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>d2/d1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'2021_24'!$AC$6:$AC$168</c:f>
-              <c:strCache>
-                <c:ptCount val="163"/>
-                <c:pt idx="0">
-                  <c:v>2021-24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021-25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021-26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2021-27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021-28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021-29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2021-30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2021-31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021-32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021-33</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2021-34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021-35</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2021-36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2021-37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2021-38</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2021-39</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2021-40</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2021-41</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2021-42</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2021-43</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2021-44</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2021-45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2021-46</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2021-47</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021-48</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021-49</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021-50</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021-51</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021-52</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2022-01</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2022-02</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2022-03</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022-04</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2022-05</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2022-06</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2022-07</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2022-08</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2022-09</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2022-10</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2022-11</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2022-12</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2022-13</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2022-14</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2022-15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2022-16</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2022-17</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2022-18</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2022-19</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2022-20</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2022-21</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2022-22</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2022-23</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2022-24</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2022-25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2022-26</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2022-27</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2022-28</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2022-29</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2022-30</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2022-31</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2022-32</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2022-33</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2022-34</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2022-35</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2022-36</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2022-37</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2022-38</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2022-39</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2022-40</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2022-41</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2022-42</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2022-43</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2022-44</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2022-45</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2022-46</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2022-47</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2022-48</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2022-49</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2022-50</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2022-51</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2022-52</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2023-01</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2023-02</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2023-03</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2023-04</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2023-05</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2023-06</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2023-07</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2023-08</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2023-09</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2023-10</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2023-11</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2023-12</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2023-13</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2023-14</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2023-15</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2023-16</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2023-17</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2023-18</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2023-19</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2023-20</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2023-21</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2023-22</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2023-23</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2023-24</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2023-25</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2023-26</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2023-27</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2023-28</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2023-29</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2023-30</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2023-31</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2023-32</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2023-33</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2023-34</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2023-35</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2023-36</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2023-37</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2023-38</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2023-39</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2023-40</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2023-41</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2023-42</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2023-43</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2023-44</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2023-45</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2023-46</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2023-47</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2023-48</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2023-49</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2023-50</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2023-51</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2023-52</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2024-01</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2024-02</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2024-03</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2024-04</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2024-05</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2024-06</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2024-07</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2024-08</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2024-09</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2024-10</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2024-11</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2024-12</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2024-13</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2024-14</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2024-15</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2024-16</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2024-17</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2024-18</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2024-19</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2024-20</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2024-21</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2024-22</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2024-23</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2024-24</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2024-25</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2024-26</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2024-27</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2024-28</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2024-29</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2024-30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'2021_24'!$AF$6:$AF$168</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="163"/>
-                <c:pt idx="0">
-                  <c:v>0.91179765951377534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98453628099064605</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94683392711182923</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95960611794087858</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9975139755677469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0217304790872073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0194055859460918</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0248965093000768</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0327584160111143</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.034223471733501</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0431081674181226</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0460065368100044</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0387667204580948</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0493330430285612</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0459176219915596</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0398566821951967</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0515859109379269</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.0634782301901529</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0753132615844168</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.087213457703464</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0853319943255351</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0898931151297961</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0927599134120618</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0946774000863941</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0974536719577346</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0994853759377166</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1019649385152321</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1008831678687554</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.1050776635838038</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.1065710193265788</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.105981038111002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.1054073855014723</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.1097610020710722</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.1097366047302566</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.1086463352859381</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.1103365905283982</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1162499311639775</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.1194648541604502</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.1277368058797437</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1221620988557481</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.1243776232676335</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.1240908444146902</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.1219688733172539</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.1237073512236269</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1270785242758496</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.1274360658020859</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.1355816289088059</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.131526979130304</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.1294829468155607</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.1296900827704353</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.1308585216852811</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1324709870785026</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1347781102898047</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1371346970731817</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.1362425805116494</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.1361156258364009</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.1385530737290694</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.138323140382564</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.1419583253007544</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1405227189127307</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1394036600432775</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.1405046653433994</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.1411007718244885</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.1424478290380289</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.1459638844525186</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.1442343786882878</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.143515388199738</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.1423931151880216</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.144485427257663</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.1448459856927655</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.147225531535492</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.1475238053733428</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.147895247016153</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.1463765390091665</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.1479971618018892</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.1489114789872799</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.1460415220791886</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.1446624699403303</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.14545041062705</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.145450651179871</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.1463729800876461</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.1445424690039572</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.1428951165050396</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.1408243085247867</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.143790759031925</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.1432408676998522</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.1415213719847193</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.1419140475969762</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.1430146095805649</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.1413709511023122</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.1417012592457578</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.142498178259665</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.1436519864756756</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.1431968953874083</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.1418983793342423</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.1408624264393235</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.14033416495481</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.1402038135535093</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.1403342075808383</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.1394071708380735</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.1396334367591354</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.1388419890573616</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.1390179461872942</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.1397386781844285</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.1403814818926108</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.1408428974643439</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.1414626954882074</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.1422624099119958</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.1432938742695209</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.1427473938984707</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.1433950922273459</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.1427921513278683</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.1435119950339347</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.1430783865771004</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.143679186472391</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.1438452778230215</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.1456213519917273</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.1449659395163336</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.146571034686916</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.1472165050716825</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.1464889259406992</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.1457838180284245</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.1460507290932438</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.1449412536797765</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.1445140493475505</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1.1437052936655361</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.142817630991102</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1.1423324074863479</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.1409385141605286</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.1417847975691047</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1.1408528319214954</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.1410997498802851</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1.1403819427331316</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.1415494671881976</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1.1416950151251883</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1.1410410378894251</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1.1414741704680984</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1.1409857900474374</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1.141135456966575</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1.1385326776704212</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1.1368937253569276</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1.1379392394504231</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1.1390275742553428</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1.1387785434802824</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1.1377466340225832</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1.1369488828194128</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1.1352606318368119</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1.1355595540886609</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1.1363613762897387</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1.1360395571496729</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1.1365220125163247</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1.1367798619221281</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1.1361405381510878</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1.1369790660323631</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1.1366241647592883</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1.1361684150266655</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1.1363254150312727</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1.1368175328230639</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1.1378749386532652</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1.1375530781272418</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1.136895059776226</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1.1362367213210418</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EDF0-4B42-82AA-3494E71A4B54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -4419,19 +3391,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="163"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82249265850892694</c:v>
@@ -5438,19 +4410,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="163"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.2979736142846487</c:v>
@@ -6457,19 +5429,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="163"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.85861392228206745</c:v>
@@ -7476,19 +6448,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="163"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.2371944014889749</c:v>
@@ -7989,25 +6961,34 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'2021_24'!$AK$5</c15:sqref>
+                          <c15:sqref>'2021_24'!$AF$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>CI low d2/d1</c:v>
+                        <c:v>d2/d1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:prstDash val="solid"/>
+                    <a:round/>
+                  </a:ln>
+                </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
@@ -8519,6 +7500,1045 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
+                          <c15:sqref>'2021_24'!$AF$6:$AF$168</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="163"/>
+                      <c:pt idx="0">
+                        <c:v>0.91179765951377534</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.98453628099064605</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.94683392711182923</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.95960611794087858</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.9975139755677469</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0217304790872073</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0194055859460918</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.0248965093000768</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0327584160111143</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.034223471733501</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.0431081674181226</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.0460065368100044</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.0387667204580948</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.0493330430285612</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.0459176219915596</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0398566821951967</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.0515859109379269</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.0634782301901529</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.0753132615844168</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.087213457703464</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.0853319943255351</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.0898931151297961</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.0927599134120618</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.0946774000863941</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.0974536719577346</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.0994853759377166</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.1019649385152321</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.1008831678687554</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.1050776635838038</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.1065710193265788</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.105981038111002</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.1054073855014723</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.1097610020710722</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.1097366047302566</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.1086463352859381</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.1103365905283982</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.1162499311639775</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.1194648541604502</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.1277368058797437</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.1221620988557481</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.1243776232676335</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.1240908444146902</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1.1219688733172539</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1.1237073512236269</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1.1270785242758496</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1.1274360658020859</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1.1355816289088059</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1.131526979130304</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1.1294829468155607</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1.1296900827704353</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1.1308585216852811</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.1324709870785026</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1.1347781102898047</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1.1371346970731817</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1.1362425805116494</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.1361156258364009</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1.1385530737290694</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1.138323140382564</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1.1419583253007544</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1.1405227189127307</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1.1394036600432775</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1.1405046653433994</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1.1411007718244885</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>1.1424478290380289</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>1.1459638844525186</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>1.1442343786882878</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>1.143515388199738</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>1.1423931151880216</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>1.144485427257663</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>1.1448459856927655</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>1.147225531535492</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>1.1475238053733428</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>1.147895247016153</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1.1463765390091665</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>1.1479971618018892</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>1.1489114789872799</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>1.1460415220791886</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1.1446624699403303</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>1.14545041062705</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>1.145450651179871</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>1.1463729800876461</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>1.1445424690039572</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>1.1428951165050396</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>1.1408243085247867</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>1.143790759031925</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>1.1432408676998522</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>1.1415213719847193</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>1.1419140475969762</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>1.1430146095805649</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>1.1413709511023122</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>1.1417012592457578</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>1.142498178259665</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>1.1436519864756756</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>1.1431968953874083</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>1.1418983793342423</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>1.1408624264393235</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>1.14033416495481</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>1.1402038135535093</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>1.1403342075808383</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>1.1394071708380735</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>1.1396334367591354</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>1.1388419890573616</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>1.1390179461872942</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>1.1397386781844285</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>1.1403814818926108</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>1.1408428974643439</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>1.1414626954882074</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>1.1422624099119958</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>1.1432938742695209</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>1.1427473938984707</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>1.1433950922273459</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>1.1427921513278683</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>1.1435119950339347</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>1.1430783865771004</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>1.143679186472391</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>1.1438452778230215</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>1.1456213519917273</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>1.1449659395163336</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>1.146571034686916</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>1.1472165050716825</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>1.1464889259406992</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>1.1457838180284245</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>1.1460507290932438</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>1.1449412536797765</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>1.1445140493475505</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>1.1437052936655361</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>1.142817630991102</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>1.1423324074863479</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>1.1409385141605286</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>1.1417847975691047</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>1.1408528319214954</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>1.1410997498802851</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>1.1403819427331316</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>1.1415494671881976</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>1.1416950151251883</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>1.1410410378894251</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>1.1414741704680984</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>1.1409857900474374</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>1.141135456966575</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>1.1385326776704212</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>1.1368937253569276</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>1.1379392394504231</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>1.1390275742553428</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>1.1387785434802824</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>1.1377466340225832</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>1.1369488828194128</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>1.1352606318368119</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>1.1355595540886609</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>1.1363613762897387</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>1.1360395571496729</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>1.1365220125163247</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>1.1367798619221281</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>1.1361405381510878</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>1.1369790660323631</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>1.1366241647592883</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>1.1361684150266655</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>1.1363254150312727</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>1.1368175328230639</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>1.1378749386532652</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>1.1375530781272418</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>1.136895059776226</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>1.1362367213210418</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EDF0-4B42-82AA-3494E71A4B54}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2021_24'!$AK$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CI low d2/d1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'2021_24'!$AC$6:$AC$168</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="163"/>
+                      <c:pt idx="0">
+                        <c:v>2021-24</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2021-25</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2021-26</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2021-27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2021-28</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2021-29</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2021-30</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2021-31</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2021-32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2021-33</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2021-34</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2021-35</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2021-36</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2021-37</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2021-38</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2021-39</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2021-40</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2021-41</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2021-42</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2021-43</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2021-44</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2021-45</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2021-46</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2021-47</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2021-48</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2021-49</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2021-50</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2021-51</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2021-52</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2022-01</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2022-02</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2022-03</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2022-04</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2022-05</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2022-06</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2022-07</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2022-08</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2022-09</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2022-10</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2022-11</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2022-12</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2022-13</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2022-14</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2022-15</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2022-16</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2022-17</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2022-18</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2022-19</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2022-20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2022-21</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2022-22</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2022-23</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2022-24</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2022-25</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2022-26</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2022-27</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2022-28</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>2022-29</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>2022-30</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>2022-31</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2022-32</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2022-33</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2022-34</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2022-35</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2022-36</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2022-37</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2022-38</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2022-39</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2022-40</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2022-41</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2022-42</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2022-43</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2022-44</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>2022-45</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2022-46</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2022-47</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2022-48</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2022-49</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2022-50</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2022-51</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>2022-52</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>2023-01</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>2023-02</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>2023-03</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>2023-04</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>2023-05</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>2023-06</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>2023-07</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>2023-08</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>2023-09</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>2023-10</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>2023-11</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>2023-12</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>2023-13</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>2023-14</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>2023-15</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>2023-16</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>2023-17</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>2023-18</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>2023-19</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>2023-20</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>2023-21</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>2023-22</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>2023-23</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>2023-24</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>2023-25</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>2023-26</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>2023-27</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>2023-28</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>2023-29</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>2023-30</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>2023-31</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>2023-32</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>2023-33</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>2023-34</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>2023-35</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>2023-36</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>2023-37</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>2023-38</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>2023-39</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>2023-40</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>2023-41</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>2023-42</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>2023-43</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>2023-44</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>2023-45</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>2023-46</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>2023-47</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>2023-48</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>2023-49</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>2023-50</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>2023-51</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>2023-52</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>2024-01</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>2024-02</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>2024-03</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>2024-04</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>2024-05</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>2024-06</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>2024-07</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>2024-08</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>2024-09</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>2024-10</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>2024-11</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>2024-12</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>2024-13</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>2024-14</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>2024-15</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>2024-16</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>2024-17</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>2024-18</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>2024-19</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>2024-20</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>2024-21</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>2024-22</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>2024-23</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>2024-24</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>2024-25</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>2024-26</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>2024-27</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>2024-28</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>2024-29</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>2024-30</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
                           <c15:sqref>'2021_24'!$AK$6:$AK$168</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
@@ -8527,19 +8547,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="163"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>0.8000226093877969</c:v>
@@ -9019,7 +9039,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-EDF0-4B42-82AA-3494E71A4B54}"/>
                   </c:ext>
@@ -9032,7 +9052,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2021_24'!$AL$5</c15:sqref>
@@ -9052,7 +9072,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2021_24'!$AC$6:$AC$168</c15:sqref>
@@ -9555,7 +9575,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2021_24'!$AL$6:$AL$168</c15:sqref>
@@ -9566,19 +9586,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="163"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>#N/A</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>1.2437575135712775</c:v>
@@ -10298,7 +10318,15 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" kern="1200"/>
-            <a:t>The net harm is statisitically</a:t>
+            <a:t>The net harm by end of 2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" kern="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" kern="1200"/>
+            <a:t>is statisitically</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" kern="1200" baseline="0"/>
@@ -10324,7 +10352,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" kern="1200" baseline="0"/>
-            <a:t> age, they have higher mortality and frailty--&gt; greater impact of COVID.</a:t>
+            <a:t> age, they have higher mortality and frailty--&gt; greater impact of COVID. The COVID vaccine had little to no impact. It was primarily selection bias.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0" kern="1200"/>
         </a:p>
@@ -10892,8 +10920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL168"/>
   <sheetViews>
-    <sheetView topLeftCell="U79" workbookViewId="0">
-      <selection activeCell="AE86" sqref="AE86"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="BF9" sqref="BF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11213,131 +11241,29 @@
         <f t="shared" ref="AF6:AF37" ca="1" si="15">AA6/OFFSET(AA$6,$B$1,0)</f>
         <v>0.91179765951377534</v>
       </c>
-      <c r="AG6" t="str" cm="1">
-        <f t="array" ref="AG6">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AH6" t="str" cm="1">
-        <f t="array" ref="AH6">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AI6" t="str" cm="1">
-        <f t="array" ref="AI6">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AJ6" t="str" cm="1">
-        <f t="array" ref="AJ6">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AK6" t="str" cm="1">
-        <f t="array" ref="AK6">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AL6" t="str" cm="1">
-        <f t="array" ref="AL6">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
+      <c r="AG6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL6" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -11438,131 +11364,29 @@
         <f t="shared" ca="1" si="15"/>
         <v>0.98453628099064605</v>
       </c>
-      <c r="AG7" t="str" cm="1">
-        <f t="array" ref="AG7">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AH7" t="str" cm="1">
-        <f t="array" ref="AH7">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AI7" t="str" cm="1">
-        <f t="array" ref="AI7">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AJ7" t="str" cm="1">
-        <f t="array" ref="AJ7">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AK7" t="str" cm="1">
-        <f t="array" ref="AK7">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AL7" t="str" cm="1">
-        <f t="array" ref="AL7">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
+      <c r="AG7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL7" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -11663,131 +11487,29 @@
         <f t="shared" ca="1" si="15"/>
         <v>0.94683392711182923</v>
       </c>
-      <c r="AG8" t="str" cm="1">
-        <f t="array" ref="AG8">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AH8" t="str" cm="1">
-        <f t="array" ref="AH8">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AI8" t="str" cm="1">
-        <f t="array" ref="AI8">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AJ8" t="str" cm="1">
-        <f t="array" ref="AJ8">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AK8" t="str" cm="1">
-        <f t="array" ref="AK8">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AL8" t="str" cm="1">
-        <f t="array" ref="AL8">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
+      <c r="AG8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL8" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -11888,131 +11610,29 @@
         <f t="shared" ca="1" si="15"/>
         <v>0.95960611794087858</v>
       </c>
-      <c r="AG9" t="str" cm="1">
-        <f t="array" ref="AG9">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AH9" t="str" cm="1">
-        <f t="array" ref="AH9">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AI9" t="str" cm="1">
-        <f t="array" ref="AI9">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AJ9" t="str" cm="1">
-        <f t="array" ref="AJ9">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AK9" t="str" cm="1">
-        <f t="array" ref="AK9">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AL9" t="str" cm="1">
-        <f t="array" ref="AL9">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
+      <c r="AG9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL9" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -12113,131 +11733,29 @@
         <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
-      <c r="AG10" t="str" cm="1">
-        <f t="array" ref="AG10">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AH10" t="str" cm="1">
-        <f t="array" ref="AH10">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dV^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AD:AD,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AI10" t="str" cm="1">
-        <f t="array" ref="AI10">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AJ10" t="str" cm="1">
-        <f t="array" ref="AJ10">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dU, INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incU, INDEX(U:U,_xlpm.s):INDEX(U:U,_xlpm.r)-INDEX(U:U,_xlpm.t0):INDEX(U:U,_xlpm.r-1),
-    _xlpm.rawU, -LN(1 - INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(E:E,_xlpm.s):INDEX(E:E,_xlpm.r)/(INDEX(B:B,_xlpm.s):INDEX(B:B,_xlpm.r))^2 * (_xlpm.incU/_xlpm.rawU)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dU^2) ),
-    _xlpm.K, INDEX(AE:AE,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AK10" t="str" cm="1">
-        <f t="array" ref="AK10">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K/_xlpm.F
-  )
-)</f>
-        <v/>
-      </c>
-      <c r="AL10" t="str" cm="1">
-        <f t="array" ref="AL10">IF(ROW()&lt;=$B$1+6,"",
-  _xlfn.LET(
-    _xlpm.r,ROW(),
-    _xlpm.t0,$B$1+6, _xlpm.s,$B$1+7,
-    _xlpm.dW, INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0),
-    _xlpm.dV, INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0),
-    _xlpm.incW, INDEX(W:W,_xlpm.s):INDEX(W:W,_xlpm.r)-INDEX(W:W,_xlpm.t0):INDEX(W:W,_xlpm.r-1),
-    _xlpm.rawW, -LN(1 - INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r)),
-    _xlpm.incV, INDEX(V:V,_xlpm.s):INDEX(V:V,_xlpm.r)-INDEX(V:V,_xlpm.t0):INDEX(V:V,_xlpm.r-1),
-    _xlpm.rawV, -LN(1 - INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r)),
-    _xlpm.VarT, SUMPRODUCT( INDEX(G:G,_xlpm.s):INDEX(G:G,_xlpm.r)/(INDEX(D:D,_xlpm.s):INDEX(D:D,_xlpm.r))^2 * (_xlpm.incW/_xlpm.rawW)^2 ),
-    _xlpm.VarU, SUMPRODUCT( INDEX(F:F,_xlpm.s):INDEX(F:F,_xlpm.r)/(INDEX(C:C,_xlpm.s):INDEX(C:C,_xlpm.r))^2 * (_xlpm.incV/_xlpm.rawV)^2 ),
-    _xlpm.SE, SQRT( _xlpm.VarT/(_xlpm.dW^2) + _xlpm.VarU/(_xlpm.dV^2) ),
-    _xlpm.K, INDEX(AF:AF,_xlpm.r),
-    _xlpm.F, EXP(1.96*_xlpm.SE),
-    _xlpm.K*_xlpm.F
-  )
-)</f>
-        <v/>
+      <c r="AG10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL10" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -47800,7 +47318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84728F8-6872-4219-9AA6-EC52FA12A088}">
   <dimension ref="A16:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>

--- a/example/KCOR_sample_computation_194x.xlsx
+++ b/example/KCOR_sample_computation_194x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3B5808-52CF-427B-9642-4CC52A9A6DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3763283-27DA-4281-9B9D-D9EE08CC9881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="2115" windowWidth="22110" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_24" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
   <si>
     <t>baseline</t>
   </si>
@@ -663,12 +663,18 @@
   <si>
     <t>for the ASMR computation:</t>
   </si>
+  <si>
+    <t>Grok validation of the CI formula above</t>
+  </si>
+  <si>
+    <t>https://grok.com/share/c2hhcmQtMg%3D%3D_cdf6ec94-6d59-4b34-b14e-4276f2153da2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +694,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -725,10 +739,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -737,8 +752,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10586,16 +10603,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>37257</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>94405</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437307</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>113455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10618,7 +10635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="8001000"/>
+          <a:off x="7715250" y="8591550"/>
           <a:ext cx="6742857" cy="6761905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10920,8 +10937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="BF9" sqref="BF9"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47316,9 +47333,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84728F8-6872-4219-9AA6-EC52FA12A088}">
-  <dimension ref="A16:B41"/>
+  <dimension ref="A16:N42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -47329,13 +47346,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>201</v>
       </c>
+      <c r="N41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N42" r:id="rId1" xr:uid="{B7C85C77-1234-47B7-84A9-734267E7BEEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/example/KCOR_sample_computation_194x.xlsx
+++ b/example/KCOR_sample_computation_194x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE304B8E-03D5-44AB-91F7-718C1DC83779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5CBB2D-479D-4DAB-B931-9F944C0D3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="205">
   <si>
     <t>baseline</t>
   </si>
@@ -655,9 +655,6 @@
     <t>Grok validation of the CI formula below</t>
   </si>
   <si>
-    <t>MR computation</t>
-  </si>
-  <si>
     <t>MR=mortality risk (aka interval prob of risk)</t>
   </si>
   <si>
@@ -668,6 +665,12 @@
   </si>
   <si>
     <t>Net impact 1 vs 2 shots</t>
+  </si>
+  <si>
+    <t>h(t) = "instantaneous death rate" aka</t>
+  </si>
+  <si>
+    <t>MR=deaths/(alive at start of interval)</t>
   </si>
 </sst>
 </file>
@@ -11071,7 +11074,7 @@
   <dimension ref="A1:AL168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11103,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J1" s="7">
         <f ca="1">AD86</f>
@@ -11157,7 +11160,10 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="M3" t="s">
+        <v>203</v>
       </c>
       <c r="AD3" t="s">
         <v>7</v>
@@ -11168,13 +11174,13 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -11186,7 +11192,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>

--- a/example/KCOR_sample_computation_194x.xlsx
+++ b/example/KCOR_sample_computation_194x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5CBB2D-479D-4DAB-B931-9F944C0D3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50302349-3FFF-4473-A1CE-1B3B5AF498FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11074,7 +11074,7 @@
   <dimension ref="A1:AL168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/example/KCOR_sample_computation_194x.xlsx
+++ b/example/KCOR_sample_computation_194x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50302349-3FFF-4473-A1CE-1B3B5AF498FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A25DC8-3501-4E40-9339-A3C7B51C32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
   <si>
     <t>baseline</t>
   </si>
@@ -672,6 +672,9 @@
   <si>
     <t>MR=deaths/(alive at start of interval)</t>
   </si>
+  <si>
+    <t>this is the acid test of the KCOR slope assumption: "can you neutralize the hazart(t) slope over time with a single value?" A: yes and it is easy to check as we did here.</t>
+  </si>
 </sst>
 </file>
 
@@ -814,7 +817,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> year from injection. There is a potential benefit during COVID waves.</a:t>
+              <a:t> year from injection. There is a potential benefit during COVID waves. This is born in 194x.</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -10261,6 +10264,4875 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> adj hazards shows unvaxxed mortality rate is higher later </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>which reduces vax harm! </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021_24'!$U$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021_24'!$U$6:$U$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>1.5679641574835128E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.892691843794472E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0973152101806114E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5044370879552334E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8209690126798065E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0823081451650725E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3485913643279964E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0516318485638578E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1774084501812452E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3024489650135895E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4261283832171148E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5428666754826952E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6712236732889144E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7950975478884613E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9282106873311125E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0474035048188087E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1676820639652226E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.314375061404176E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4578517829785942E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6453304193468564E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8349286261738296E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0292429320842772E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2989518427044486E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5674632683778927E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8334423002607511E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1007985765289488E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3602743127553682E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6064413402200299E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8411351450651854E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0454205162307884E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2398544945679304E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4060546878922706E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5654801409627766E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7514959066135171E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.963697100607937E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1748110664612117E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.3647518008966425E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.5458006841705968E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7094910846483169E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.8738617017963174E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.0515783599903917E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.2102742256120109E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.3682021153777033E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.5139593090152168E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.6545780534171298E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7957488132617159E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9374739777316336E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.0848182254020767E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.2160505610448686E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.3324856472765663E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.4632446935316519E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.5981738556648576E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.7152006822631717E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.8304412295048929E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.9639202458941705E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.077047240471578E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.2219992955103997E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.3682711265117957E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.5023012985397962E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.659550027754879E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7931137706233143E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.9218484682311148E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.10063316792564783</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.10191500373540609</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.10344851960086111</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.10467833316576315</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.1060837022446534</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.10772083350180257</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.10938810183488047</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.11115660170364473</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.11245047103969889</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.11399499279839995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.11527496907493731</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.11675945966973932</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.11810535553920636</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.11948854056165303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.12105481104425077</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.12251366325660835</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.12424701824554371</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.12621660641861843</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.12831793089420082</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.13032935829389877</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13214215430367982</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13381262946130462</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13525590378722385</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.13681370788639433</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.13830185137361792</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.13971969037086623</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.14130407706738746</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.14270734962720272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.14422703983908525</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.14582984431609039</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.1471805334979053</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14856219565800138</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.14981889835431408</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.151219518714168</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15259918279183146</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15382609533678596</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.15515429871386349</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.15632835461759037</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.1575952843022779</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.15903596352903362</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.16037485203250193</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.16180837296044645</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.16321127783385961</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.16466460831486651</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.16596016538359501</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.16734237290061896</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.16863835170662211</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.16980153714957202</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.17095044530885883</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.17232500459636069</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.17355636012881481</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.17522006856337946</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.17647000355560719</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.1777338031831783</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.17887991648255969</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.18014329087429778</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.18156276165145344</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.18281637453247715</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.18435119389636226</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.18591098853265398</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.18749595021549309</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.18901939375385463</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.19056796174995977</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.19223911619486675</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.19389721141691041</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.19566954506480549</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.19741933071913545</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.19948235326447183</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.20134549270232358</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.20327585184429611</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.2054041068449243</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.20725993956925809</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.20898198325088158</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.21077144036679626</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.21254759425346662</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.2144429225734121</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.21649949219007855</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.21814279567883349</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.21967883089736584</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.22113773562765421</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.22271635977677262</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.22426960483729833</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.22568202266988691</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.22722571256345644</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.22865909239227863</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.23024594714373769</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.23179622794695021</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.23312825873385126</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.2344971553676245</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.23599989217588757</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.23736797592734196</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.23879507114872217</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.2402707806645985</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.2416428769524035</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.2427246026215088</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.24425994975278842</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.24552554545980762</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.24668505407242694</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.24791508006352289</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.24921615689469392</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.25053298266322849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBA5-448E-937B-BF3C06016471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021_24'!$V$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021_24'!$V$6:$V$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>5.9080299299629671E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1528225457054469E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7319501034855011E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2765645320658502E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9128342874612276E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5662409899390917E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2425284918535238E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9130358275685003E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.57776030681577E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1621667358179102E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.8152687618096251E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4224572482012256E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1269995838147528E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9060365862300758E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5475331302891254E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0223352615951751E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0990831411536518E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1615052221104384E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2279311635343406E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.310971494623327E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3842758456918267E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4753498027709864E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.564719801380814E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6592660528798726E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7681768547390442E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8679430725434064E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.958551390753531E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.043435105553108E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1237363645386063E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1942849158888118E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2699976188866367E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.342268301239446E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4225751156704091E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4931287034303196E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5832008267635022E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6715659544779263E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7455870803037186E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8132928761715283E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8764022823549645E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9337655008299657E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0267134788008764E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1058968773817652E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1885317559844147E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2751964148228438E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.3521077961523753E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.426150733765463E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5053652206988362E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.5616097390531599E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.641965947260746E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7177333157010661E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.7917802976681021E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8583614962560166E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9197702457488236E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.9783013500824152E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.0442883450035751E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.1131423021875911E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.1745305203233947E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.254284622755837E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.3288771689762286E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.4040463978299693E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.4826643982861639E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.561862731400073E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6295804891641125E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7013157524352998E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7719027858787899E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.8373209716228285E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.924559990137467E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.007792066041495E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0916094458348028E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.1639460462263906E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.2466267038631928E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.3166750051472533E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.3867227566883925E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.4636654882317393E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.5515339521306301E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.627920985249199E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.7054624034614837E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.7979592284932435E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.8968054075818885E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.0037385746338268E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.1130164625766606E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.211395857157169E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.3109568642028421E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4076676217939568E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.5032529099250933E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.5746549494777359E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.6558556210791708E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.7462902526844809E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.8309780315169114E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.9110656641439852E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.0044286674828121E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.0828146850508186E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.1600541641430898E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2338383938768236E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.313972470942999E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.4010409237879493E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.4846623462302128E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.5677191795082754E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.6398191928714942E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.7136531455670898E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.7967286394985666E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.8694223729780646E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.9478932750358056E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.0200195645524192E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.0840641980786498E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.156188915850178E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.2179228099770546E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.2854251581754995E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8.3615876336201239E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.4290942890555109E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.4989096248443932E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.5641065482186765E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.6402719570128156E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.7072039385027625E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.7943484910650946E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8.8630254130958319E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8.9317024647572893E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.9946045275162784E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.0707859713616168E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.1342671307236833E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.2058302636449277E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9.2953049500284449E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.3836445959005005E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.4621776580115821E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.5482344983023021E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.6296828106328961E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.718661036245009E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.8163378712709068E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.905944520404901E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.10005992545714659</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.10097389635677852</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.10192285889936259</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.10279099547176036</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.10371146811900721</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.10446991407737959</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.10529217980764104</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.1062653221903255</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.1070821954880795</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.10813124172321778</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.10893117920942653</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.10996339400498861</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.1108508466492959</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.11148886047576256</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.11220811436560521</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.11294482353291864</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.11383256990973094</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.11468567686660344</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.11553895880017469</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.11620068235434193</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.11681593266537367</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.11757636786821588</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.11822068947423733</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.11890565785607246</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.11966616905746044</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.12030474669784227</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.12102464189341537</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.12172714994524367</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.12247036478543842</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.12323689354676093</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.12374201569462799</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.12444457329406347</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.12512391881834883</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.12584976766156103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBA5-448E-937B-BF3C06016471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021_24'!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021_24'!$W$6:$W$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>3.600180554979646E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.585509145219537E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0959649942271178E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4600307573949514E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9467410648958457E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.377500802229674E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8970362010796637E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3472542590517514E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8206006627682517E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2532877624497679E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7107468931080494E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1745224735260283E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.681429694121146E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1829202311813151E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6957116947601565E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.1463207004961605E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6382587247377891E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1631460800137591E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7276153810618897E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4215518108842974E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0058494584475107E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0701676419014041E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1397632667832161E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2118099712541793E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2936134728615741E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3700679588223894E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4391846087415871E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5049454000264344E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5625489608252465E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.62060844366721E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6787927116013641E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7313171789171741E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7897472565090101E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8491270949990889E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9158889950973965E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9794783035937184E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0374261510346929E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0987906556848988E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1520542636829194E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2111957735329296E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2699685127206159E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3339544788470053E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3954392447536891E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4559001189121858E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5174678502264295E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.580796757609671E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6413037899212184E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7030791441809074E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.7541929482159135E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8064108825072747E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.8628319681848008E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.9161156845676814E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9667536902824521E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0171903966991442E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0736075903037004E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1234830822615831E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1697471624382134E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2372375902727547E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2933322842500938E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.3612232806053619E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.4169229049466933E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4738787634523996E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.5288540623607929E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5854072961557182E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6435373068617154E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.7048577706362329E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.7659779196844899E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.8272204475386935E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.8874571291270435E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.9499099391305137E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0144167548988072E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.0764719630239886E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.1312543213141983E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.1916209058817246E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.2533939495060048E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.3180169101350793E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.3809980364368319E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.4408958737255443E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.511166842666995E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.5961335816043301E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.6797888566741899E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.7589319134978089E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.8274855115318337E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.894403804641026E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.9584096141562652E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.0258898872555344E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.0855153548615036E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.1468567120285809E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.2132594804275428E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.279465945924984E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.3430886050572182E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.4044468916481479E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.46719842141907E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.5291182088029356E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5881426124661716E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6482402428025241E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.7068732963411591E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.7675291266009808E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.821812877680755E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.8787497540835738E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.9372309531923108E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.9937782411281053E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.0493406556190982E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.1051816500238575E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.1578309110403483E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.2162755715745928E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.2658620005654753E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.3207637148999518E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.3833372130956662E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.440685622248471E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.490927332212601E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.5444295053924795E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.599150193393559E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.6544614128298304E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.718511335144603E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.7745380372907296E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.8280243205136329E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.8867915869022953E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.9411461823306445E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.9995254664298887E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.0583368272284217E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.1224166904303401E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.1856814610301536E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.2475081023002721E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.3063397922223994E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.36591380564494E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.4287189088334787E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.4975530772607615E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.5627787191823406E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7.6298337516657988E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.7052397401147943E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7.7713020121952414E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.839191451999912E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.9044114971836651E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.9703719685707428E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.0341300979880653E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.103735956599524E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.1691313566221349E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.2456282323854019E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.3077182510494701E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8.3673019768759141E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.422682607784894E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8.4789535830749566E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.5418194251409382E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.5960214228339243E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.6557320548930325E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.7144845064628634E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.7662808442817389E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.8188106752605036E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.8717663297971608E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8.9269895113839523E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8.9797234572275259E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.0338022409072335E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>9.0864674628427219E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9.141700628060867E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.1935331091987343E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.2431905144958415E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.3009115500563858E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.363180103158017E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.4103052762626094E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9.4610562412015639E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.507201170214126E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.5568145891042483E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DBA5-448E-937B-BF3C06016471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1252934511"/>
+        <c:axId val="1252935471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1252934511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1252935471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1252935471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1252934511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Instant adj hazards shows clearly that the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> single log-slope adjustment neutralizes the hazard(t)  for the uvax which is always the most pathological due to heterogeniety + smaller size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021_24'!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d0 adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021_24'!$Q$6:$Q$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>1.5679641574835128E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3247276863109592E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.204623366386139E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.407121877774622E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3165319247245733E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2613391324852665E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2662832191629239E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1677271213105819E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2577660161738737E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2504051483234427E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2367941820352528E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1673829226558031E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2835699780621918E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2387387459954699E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.331131394426512E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1919281748769622E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2027855914641401E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.466929974389534E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4347672157441829E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8747863636826225E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8959820682697298E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.943143059104475E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6970891062017156E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6851142567344394E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6597903188285816E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6735627626819775E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5947573622641957E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4616702746466158E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3469380484515533E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0428537116560278E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9443397833714209E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6620019332434025E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5942545307050598E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8601576565074054E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1220119399441976E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1111396585327441E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8994073443543008E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8104888327395451E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.6369040047772032E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6437061714800112E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7771665819407412E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5869586562161869E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5792788976569292E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.457571936375141E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4061874440191278E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4117075984458561E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4172516446991717E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4734424767044285E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.312323356427918E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1643508623169804E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.307590462550855E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3492916213320605E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1702682659831451E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1524054724172136E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3347901638927756E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1312699457740811E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4495205503882228E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4627183100139609E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3403017202800024E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5724872921508248E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3356374286843499E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2873469760779984E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4146832433366778E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2818358097582553E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5335158654550206E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.2298135649020357E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.405369078890239E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6371312571491809E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6672683330778942E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7684998687642586E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2938693360541628E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5445217587010472E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2799762765373576E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4844905948020104E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.345895869467038E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3831850224466815E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5662704825977385E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4588522123575838E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7333549889353499E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9695881730747203E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1013244755823924E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0114273996979432E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8127960097810358E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.670475157624816E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4432743259192248E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5578040991704831E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4881434872236041E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4178389972483055E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5843866965212169E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4032725598152646E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5196902118825351E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.602804477005147E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3506891818149214E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3816621600960695E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2567026963127062E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4006203598539255E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3796640776634729E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2269125449544823E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3282033770775474E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.1740559037268646E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2669296846875267E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.4406792267557271E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3388885034683034E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.433520927944514E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.402904873413166E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4533304810068935E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2955570687284946E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3822075170239363E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2959788060031602E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1631854429498998E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1489081592868187E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3745592875018524E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2313555324541122E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.6637084345646378E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2499349922277365E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2637996275711024E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.146113299381398E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.2633743917380964E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4194707771556592E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2536128810237239E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5348193638851193E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.5597946362917062E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.5849616828391242E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.5234435383615255E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.5485679961051405E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.6711544449069856E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.6580952220436541E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7723336478950888E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7497856543299657E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.0630225453363775E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.8631394378517468E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.9303591419725413E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.1282550006281775E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.8558327243338004E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.7220436816234844E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.7894571159146958E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.7761538866703471E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.8953283199454991E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0565696166664352E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.6433034887549324E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.536035218532339E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.4589047302883641E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.578624149118418E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.5532450605256994E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.4124178325885877E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.543689893569527E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.4333798288221889E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.5868547514590729E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.5502808032125065E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.3320307869010464E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.3688966337732477E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.502736808263071E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.3680837514543787E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.427095221380206E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.4757095158763282E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.3720962878050022E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0817256691053054E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.535347131279614E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.2655957070191973E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.1595086126193334E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.2300259910959497E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.30107683117103E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.3168257685345778E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B2E-42FC-9792-F6DDA603B361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021_24'!$R$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d1 adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021_24'!$R$6:$R$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>5.9080299299629671E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6201955270915023E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7912755778005416E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4461442858034896E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.362697553953774E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.53406702477864E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7628750191443235E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7050733571497663E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6472447924726958E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8440642900214066E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5310202599171488E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0718848639160022E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0454233561352737E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7903700241532261E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4149654405904963E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7581948566262516E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6747879558476749E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2422080956786553E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6425941423902269E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3040331088986427E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.3304351068499717E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1073957079159642E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9369998609827711E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4546251499058739E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0891080185917159E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.976621780436218E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.0608318210124588E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.488371479957712E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0301258985498178E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.0548551350205506E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5712702997824744E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2270682352809429E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0306814430962934E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0553587759910545E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0072123333182516E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.8365127714424001E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4021125825792259E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7705795867809633E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3109406183436099E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.7363218475001078E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2947977970910575E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.9183398580888876E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.2634878602649473E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6664658838429289E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.6911381329531183E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.4042937613087798E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9214486933373103E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.6244518354323634E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.0356208207586148E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5767368440320094E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.4046981967035806E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.6581198587914697E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1408749492807273E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.8531104333591508E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.5986994921159951E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.88539571840161E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.1388218135803737E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.9754102432442553E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4592546220391299E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.5169228853740739E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.8618000456194624E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.9198333113909153E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.771775776403977E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.1735263271187593E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.058703344349031E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5418185744038821E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.7239018514638381E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.3232075904028061E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.3817379793308072E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.2336600391587817E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2680657636802506E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.0048301284060728E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.0047751541139458E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.6942731543346639E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.7868463898890673E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.6387033118568949E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.7541418212284945E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.24968250317598E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8846179088645306E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0693316705193802E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.092778879428337E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.8379394580508329E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.9561007045672494E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.6710757591114563E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.5585288131136534E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.140203955264278E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.1200671601435121E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.0434631605310284E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.4687778832430547E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.0087632627073315E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.3363003338826542E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.8386017568005941E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.7239479092271234E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.3784229733733612E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.01340770661755E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.7068452844950024E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.3621422442264166E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.3056833278062462E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.2100013363218883E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.3833952695594954E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.3075493931477468E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.2693733479498707E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.8470902057740271E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.2126289516612945E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.404463352623097E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.212471777152833E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.1733894126876512E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.7502348198444776E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.6162475444624227E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.7506655435386575E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.9815335788881816E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.5196923374283256E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.6165408794139609E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.6931981489946749E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8.7144552562332426E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6.8676922030736691E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.8677051661456716E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6.2902062758989085E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.6181443845338946E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.3481159362066661E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.1563132921244864E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.9474686383517784E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.8339645872055085E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.8533062111081913E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.6056840290720253E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.144831233059456E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.8978225612113492E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.7676835025897746E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.9606649133994686E-4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.0004802530975772E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.1397089963191904E-4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.48962542584067E-4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.6813657239777191E-4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.2047264724685039E-4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.5844595837237815E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.2226573026144959E-4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.7314238268446482E-4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.1687329775399613E-4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0490462351382779E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.9993748620875774E-4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.0322147955620794E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.8745264430728282E-4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.3801382646666994E-4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.1925388984265268E-4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.3670916731342494E-4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.877463768123023E-4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.5310695687250589E-4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.5328193357124798E-4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.6172355416724369E-4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.1525031103173533E-4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7.6043520284219926E-4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.4432160602146153E-4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.8496838183513186E-4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.605112013879796E-4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.3857764038183326E-4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7.1989519557309723E-4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.0250805182829937E-4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.4321484019474642E-4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.665287613225079E-4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.0512214786705757E-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.0255759943548099E-4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.7934552428536136E-4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7.258488432121909E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B2E-42FC-9792-F6DDA603B361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021_24'!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d2 adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021_24'!$S$6:$S$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="163"/>
+                <c:pt idx="0">
+                  <c:v>3.600180554979646E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9853285902398909E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3741407970516404E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6406576316783362E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8671030750089433E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3075973733382845E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1953539884998972E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5021805797208753E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7334640371650031E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3268709968151642E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5745913065828157E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6377558041797864E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0690722059511814E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0149053706016928E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1279146357884162E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5060900573600367E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9193802424162892E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.2488735527597089E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6446930104813006E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9393642982240708E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.369427735908094E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4318183453893453E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9595624881811961E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2046704470963305E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1803501607394767E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6454485960815357E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.911664991919778E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.5760791284847329E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7603560798812048E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8059482841963587E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8184267934154174E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2524467315809872E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8430077591835891E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.9379838490078896E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.67619000983075E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3589308496321746E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7947847440974404E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1364504650205916E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3263607998020742E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9141509850010041E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8772739187686409E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3985966126389336E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.1484765906683698E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.0460874158496799E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.1567731314243637E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.3328907383241521E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0507032311547598E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.1775354259689089E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.1113804035006255E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2217934291361168E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6421085677526065E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.328371638288063E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.063800571477058E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0436706416691931E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.6417193604556422E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.9875491957882543E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.6264080176629946E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7490427834541208E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.6094693977338736E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.7890996355267959E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.5699624341331232E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.695585850570633E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.4975298908393143E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.6553233794925147E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.8130010705997046E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.1320463774517308E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.1120149048257114E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.124252785420347E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0236681588349663E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.2452810003470194E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.4506815768293631E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.2055208125181367E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.4782358290209792E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.0366584567526145E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.1773043624280483E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.4622960629074472E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.2981126301752419E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.9897837288712375E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.027096894145048E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.4966738937335194E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.3655275069860079E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.9143056823618974E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8553598034024543E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.6918293109192051E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.4005809515238943E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7480273099269135E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.9625467605969515E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1341357167077034E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.6402768398961698E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.6206465497440996E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.3622659132234064E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.1358286590929749E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.2751529770921799E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.191978738386587E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.9024403663236269E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.009763033635227E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8633053538634738E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.065583025982172E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.4283751079774363E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.6936876402818967E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.8481199108737164E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.6547287935794239E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.5562414490993052E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.5840994404759091E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.2649261016490692E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.8444660534244205E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.9586428990881987E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.4901714334476385E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.2573498195714729E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.7348409152804868E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.0241709964130531E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.350217317987801E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.4720688001079574E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.5311219436270846E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.4049922314772436E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.6026702146126325E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.3486283222903557E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.8767266388662517E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.435459542834875E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.8379284099244297E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.8811360798532845E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.4079863201918063E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.3264770599813199E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.1826641270118477E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.8831689922127543E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.9574013422541148E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.2805103188538205E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.8834168427282859E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.5225641921579135E-4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.7055032483457743E-4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.5405988448995151E-4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.6062272080447571E-4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.7889439804671211E-4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.5220045183753638E-4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.5960471387078133E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.3758129417322486E-4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.9605858611458508E-4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.5395400022611101E-4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.6496875763267186E-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.2090018664068584E-4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.9583725826443674E-4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.5380630908980226E-4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.6270975290062455E-4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.2865842065982168E-4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.4201997692986245E-4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.9710632059107997E-4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.8752451569831637E-4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.1796337818875188E-4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.2529830978765115E-4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.2955654536656997E-4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.5223181586791688E-4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.273394584357331E-4</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.4078783679708023E-4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.2665221935489055E-4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.5233165218145617E-4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.1832481137867998E-4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.9657405297107377E-4</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.7721035560544796E-4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.2268553101630731E-4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.7125173104591858E-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.0750964938954936E-4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.6144929012562091E-4</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.9613418890122134E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5B2E-42FC-9792-F6DDA603B361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="608960576"/>
+        <c:axId val="608951456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="608960576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608951456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608951456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608960576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10294,6 +15166,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822301AC-7CF0-44A8-8D4D-BA7FD610827D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA2F16E-7DC1-E0C1-C318-5D3F71E80D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10384,6 +15330,151 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05386</cdr:x>
+      <cdr:y>0.72144</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91796</cdr:x>
+      <cdr:y>0.91805</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6F3929-358F-7324-93F9-DCB1265D705C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="412805" y="4984474"/>
+          <a:ext cx="6622774" cy="1358348"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.25871</cdr:x>
+      <cdr:y>0.22033</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.6659</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD3C606-CB9C-3386-5428-45EF88FF7621}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="1984164" y="1527810"/>
+          <a:ext cx="5685366" cy="3089675"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.05717</cdr:x>
+      <cdr:y>0.58614</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97142</cdr:x>
+      <cdr:y>0.58614</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0C4271-D22E-9E09-C26E-58F6D0FB980F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="518160" y="2223136"/>
+          <a:ext cx="8286750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11071,10 +16162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL168"/>
+  <dimension ref="A1:AN168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AH69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN73" sqref="AN73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -24073,7 +29164,7 @@
         <v>1.1699279535220271</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>92</v>
       </c>
@@ -24298,7 +29389,7 @@
         <v>1.1733548480510523</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
@@ -24523,7 +29614,7 @@
         <v>1.1715849950386727</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
@@ -24748,7 +29839,7 @@
         <v>1.1701459174012863</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>95</v>
       </c>
@@ -24973,7 +30064,7 @@
         <v>1.1710278309707109</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>96</v>
       </c>
@@ -25198,7 +30289,7 @@
         <v>1.1713845066696309</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>97</v>
       </c>
@@ -25423,7 +30514,7 @@
         <v>1.1725190389344768</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>98</v>
       </c>
@@ -25648,7 +30739,7 @@
         <v>1.1758940420612876</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>99</v>
       </c>
@@ -25873,7 +30964,7 @@
         <v>1.1738379568734583</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>100</v>
       </c>
@@ -26097,8 +31188,11 @@
 )</f>
         <v>1.172836400712882</v>
       </c>
+      <c r="AN73" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>101</v>
       </c>
@@ -26323,7 +31417,7 @@
         <v>1.1714281646175311</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>102</v>
       </c>
@@ -26548,7 +31642,7 @@
         <v>1.1733465760535577</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>103</v>
       </c>
@@ -26773,7 +31867,7 @@
         <v>1.1734693401061957</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>104</v>
       </c>
@@ -26998,7 +32092,7 @@
         <v>1.1756968968224661</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>105</v>
       </c>
@@ -27223,7 +32317,7 @@
         <v>1.1758022637459296</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>106</v>
       </c>
@@ -27448,7 +32542,7 @@
         <v>1.1759672345601704</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
